--- a/result/extreme_weather/basic_statistics/city_5/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_5/basic_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,392 +483,426 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TEMP</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.55</v>
+        <v>3.53</v>
       </c>
       <c r="C2" t="n">
-        <v>20.68</v>
+        <v>0.78</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.64</v>
+        <v>-0.21</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.62</v>
+        <v>0.08</v>
       </c>
       <c r="F2" t="n">
-        <v>107.96</v>
+        <v>1.12</v>
       </c>
       <c r="G2" t="n">
-        <v>118.3</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>167.36</v>
+        <v>3.57</v>
       </c>
       <c r="I2" t="n">
-        <v>189.32</v>
+        <v>5.05</v>
       </c>
       <c r="J2" t="n">
-        <v>195.08</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DEWP</t>
+          <t>TEMP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.02</v>
+        <v>162.55</v>
       </c>
       <c r="C3" t="n">
-        <v>22.9</v>
+        <v>20.68</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.82</v>
+        <v>-0.64</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.28</v>
+        <v>-0.62</v>
       </c>
       <c r="F3" t="n">
-        <v>78.26000000000001</v>
+        <v>107.96</v>
       </c>
       <c r="G3" t="n">
-        <v>97.36</v>
+        <v>118.3</v>
       </c>
       <c r="H3" t="n">
-        <v>153.77</v>
+        <v>167.36</v>
       </c>
       <c r="I3" t="n">
-        <v>173.26</v>
+        <v>189.32</v>
       </c>
       <c r="J3" t="n">
-        <v>176.36</v>
+        <v>195.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>DEWP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.24</v>
+        <v>64.45999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.74</v>
+        <v>12.72</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>-0.82</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.73</v>
+        <v>-0.28</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5</v>
+        <v>25.7</v>
       </c>
       <c r="G4" t="n">
-        <v>100.09</v>
+        <v>36.31</v>
       </c>
       <c r="H4" t="n">
-        <v>101.19</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>102.73</v>
+        <v>78.48</v>
       </c>
       <c r="J4" t="n">
-        <v>103.29</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.63</v>
+        <v>101.24</v>
       </c>
       <c r="C5" t="n">
-        <v>42.03</v>
+        <v>0.74</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.23</v>
+        <v>0.29</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.48</v>
+        <v>-0.73</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>99.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>100.09</v>
       </c>
       <c r="H5" t="n">
-        <v>98.88</v>
+        <v>101.19</v>
       </c>
       <c r="I5" t="n">
-        <v>99.94</v>
+        <v>102.73</v>
       </c>
       <c r="J5" t="n">
-        <v>99.98</v>
+        <v>103.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VISIB</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.19</v>
+        <v>75.63</v>
       </c>
       <c r="C6" t="n">
-        <v>3.12</v>
+        <v>42.03</v>
       </c>
       <c r="D6" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="E6" t="n">
         <v>-0.48</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>11.26</v>
+        <v>98.88</v>
       </c>
       <c r="I6" t="n">
-        <v>16.25</v>
+        <v>99.94</v>
       </c>
       <c r="J6" t="n">
-        <v>17.22</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WDSP</t>
+          <t>VISIB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.43</v>
+        <v>11.19</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.38</v>
+        <v>-0.48</v>
       </c>
       <c r="E7" t="n">
-        <v>2.94</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1.13</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>4.06</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26</v>
+        <v>11.26</v>
       </c>
       <c r="I7" t="n">
-        <v>4.32</v>
+        <v>16.25</v>
       </c>
       <c r="J7" t="n">
-        <v>6.43</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MXSPD</t>
+          <t>WDSP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.94</v>
+        <v>2.43</v>
       </c>
       <c r="C8" t="n">
-        <v>1.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="E8" t="n">
-        <v>3.37</v>
+        <v>2.94</v>
       </c>
       <c r="F8" t="n">
-        <v>2.01</v>
+        <v>1.13</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
-        <v>4.99</v>
+        <v>2.26</v>
       </c>
       <c r="I8" t="n">
-        <v>7.97</v>
+        <v>4.32</v>
       </c>
       <c r="J8" t="n">
-        <v>13.02</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GUST</t>
+          <t>MXSPD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.65</v>
+        <v>4.94</v>
       </c>
       <c r="C9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.01</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.2</v>
-      </c>
       <c r="G9" t="n">
-        <v>7.75</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
-        <v>10.55</v>
+        <v>4.99</v>
       </c>
       <c r="I9" t="n">
-        <v>16.36</v>
+        <v>7.97</v>
       </c>
       <c r="J9" t="n">
-        <v>18.01</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>GUST</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.31</v>
+        <v>10.65</v>
       </c>
       <c r="C10" t="n">
-        <v>22.21</v>
+        <v>2.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.79</v>
+        <v>1.08</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.19</v>
+        <v>2.29</v>
       </c>
       <c r="F10" t="n">
-        <v>112.64</v>
+        <v>5.2</v>
       </c>
       <c r="G10" t="n">
-        <v>128.48</v>
+        <v>7.75</v>
       </c>
       <c r="H10" t="n">
-        <v>183.56</v>
+        <v>10.55</v>
       </c>
       <c r="I10" t="n">
-        <v>209.32</v>
+        <v>16.36</v>
       </c>
       <c r="J10" t="n">
-        <v>212.72</v>
+        <v>18.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.53</v>
+        <v>179.31</v>
       </c>
       <c r="C11" t="n">
-        <v>21.31</v>
+        <v>22.21</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.53</v>
+        <v>-0.79</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.93</v>
+        <v>-0.19</v>
       </c>
       <c r="F11" t="n">
-        <v>99.31999999999999</v>
+        <v>112.64</v>
       </c>
       <c r="G11" t="n">
-        <v>105.8</v>
+        <v>128.48</v>
       </c>
       <c r="H11" t="n">
-        <v>151.52</v>
+        <v>183.56</v>
       </c>
       <c r="I11" t="n">
-        <v>174.74</v>
+        <v>209.32</v>
       </c>
       <c r="J11" t="n">
-        <v>178.7</v>
+        <v>212.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PRCP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>21.31</v>
       </c>
       <c r="D12" t="n">
-        <v>4.63</v>
+        <v>-0.53</v>
       </c>
       <c r="E12" t="n">
-        <v>26.5</v>
+        <v>-0.93</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>151.52</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03</v>
+        <v>174.74</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07000000000000001</v>
+        <v>178.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>PRCP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E13" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>SNDP</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/extreme_weather/basic_statistics/city_5/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_5/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.53</v>
+        <v>924.12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.78</v>
+        <v>219.84</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.21</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0.08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.12</v>
+        <v>231.13</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>410.72</v>
       </c>
       <c r="H2" t="n">
-        <v>3.57</v>
+        <v>967.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.05</v>
+        <v>1237.72</v>
       </c>
       <c r="J2" t="n">
-        <v>5.46</v>
+        <v>1322.43</v>
       </c>
     </row>
     <row r="3">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.55</v>
+        <v>22.51</v>
       </c>
       <c r="C3" t="n">
-        <v>20.68</v>
+        <v>6.38</v>
       </c>
       <c r="D3" t="n">
         <v>-0.64</v>
@@ -533,19 +533,19 @@
         <v>-0.62</v>
       </c>
       <c r="F3" t="n">
-        <v>107.96</v>
+        <v>5.67</v>
       </c>
       <c r="G3" t="n">
-        <v>118.3</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>167.36</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>189.32</v>
+        <v>30.78</v>
       </c>
       <c r="J3" t="n">
-        <v>195.08</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="4">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.31</v>
+        <v>27.69</v>
       </c>
       <c r="C11" t="n">
-        <v>22.21</v>
+        <v>6.86</v>
       </c>
       <c r="D11" t="n">
         <v>-0.79</v>
@@ -805,19 +805,19 @@
         <v>-0.19</v>
       </c>
       <c r="F11" t="n">
-        <v>112.64</v>
+        <v>7.11</v>
       </c>
       <c r="G11" t="n">
-        <v>128.48</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>183.56</v>
+        <v>29</v>
       </c>
       <c r="I11" t="n">
-        <v>209.32</v>
+        <v>36.95</v>
       </c>
       <c r="J11" t="n">
-        <v>212.72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.53</v>
+        <v>18.19</v>
       </c>
       <c r="C12" t="n">
-        <v>21.31</v>
+        <v>6.58</v>
       </c>
       <c r="D12" t="n">
         <v>-0.53</v>
@@ -839,19 +839,19 @@
         <v>-0.93</v>
       </c>
       <c r="F12" t="n">
-        <v>99.31999999999999</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>105.8</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>151.52</v>
+        <v>19.11</v>
       </c>
       <c r="I12" t="n">
-        <v>174.74</v>
+        <v>26.28</v>
       </c>
       <c r="J12" t="n">
-        <v>178.7</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="13">

--- a/result/extreme_weather/basic_statistics/city_5/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_5/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.12</v>
+        <v>76.77</v>
       </c>
       <c r="C2" t="n">
-        <v>219.84</v>
+        <v>12.78</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.73</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="F2" t="n">
-        <v>231.13</v>
+        <v>32.25</v>
       </c>
       <c r="G2" t="n">
-        <v>410.72</v>
+        <v>45.99</v>
       </c>
       <c r="H2" t="n">
-        <v>967.2</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>1237.72</v>
+        <v>96.45</v>
       </c>
       <c r="J2" t="n">
-        <v>1322.43</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.45999999999999</v>
+        <v>18.03</v>
       </c>
       <c r="C4" t="n">
-        <v>12.72</v>
+        <v>7.07</v>
       </c>
       <c r="D4" t="n">
         <v>-0.82</v>
@@ -567,19 +567,19 @@
         <v>-0.28</v>
       </c>
       <c r="F4" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>36.31</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>67.65000000000001</v>
+        <v>19.81</v>
       </c>
       <c r="I4" t="n">
-        <v>78.48</v>
+        <v>25.82</v>
       </c>
       <c r="J4" t="n">
-        <v>80.2</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="5">
